--- a/pearson_tables/tp_netherlands_cumul-2-9.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-2-9.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6372192597499413</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5684808292064848</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7118789904572684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6908213116625538</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.670018715886724</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7668061251501753</v>
+        <v>0.6998244536577356</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5977300458277612</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6643405401654934</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.674587831069647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5164075379010177</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5451048147072638</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5889371111528526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6691674138025063</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7252906924787577</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6162674568980879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6708375658054748</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7185859345844262</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7038972526410919</v>
+        <v>-0.6824096768293239</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6821170559608155</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6498415071070038</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5674863283183537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6869150713046566</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7570844507867629</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6622391337367276</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
